--- a/Gantt project planner1.xlsx
+++ b/Gantt project planner1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keena\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keena\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{550836D7-3C25-4B2E-B11D-7C0D58127698}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{FD379728-19CC-48AC-BA25-AB3704B086A7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C35790-6586-43DC-86BB-D72C978CA3FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -150,36 +150,6 @@
     <t>MISSION DURATION</t>
   </si>
   <si>
-    <t>Mission 01</t>
-  </si>
-  <si>
-    <t>Mission 02</t>
-  </si>
-  <si>
-    <t>Mission 03</t>
-  </si>
-  <si>
-    <t>Mission 04</t>
-  </si>
-  <si>
-    <t>Mission 05</t>
-  </si>
-  <si>
-    <t>Mission 06</t>
-  </si>
-  <si>
-    <t>Mission 07</t>
-  </si>
-  <si>
-    <t>Mission 08</t>
-  </si>
-  <si>
-    <t>Mission 09</t>
-  </si>
-  <si>
-    <t>Mission 10</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -187,6 +157,36 @@
   </si>
   <si>
     <t>WEEKS</t>
+  </si>
+  <si>
+    <t>Project management</t>
+  </si>
+  <si>
+    <t>Requirment analysis</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Job progress compnent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Component </t>
+  </si>
+  <si>
+    <t>User account component</t>
+  </si>
+  <si>
+    <t>Task allocation component</t>
+  </si>
+  <si>
+    <t>Job delay component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistics component </t>
+  </si>
+  <si>
+    <t>Sofware analysis</t>
   </si>
 </sst>
 </file>
@@ -229,17 +229,20 @@
       <sz val="13"/>
       <color theme="1" tint="0.24994659260841701"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1" tint="0.24994659260841701"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="7"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1003,14 +1006,14 @@
   </sheetPr>
   <dimension ref="B1:AP30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.875" style="2" customWidth="1"/>
     <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
     <col min="8" max="27" width="2.75" style="1"/>
@@ -1035,7 +1038,7 @@
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
       <c r="G2" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H2" s="14">
         <v>9</v>
@@ -1104,7 +1107,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
@@ -1186,7 +1189,7 @@
     </row>
     <row r="5" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1209,12 +1212,12 @@
       <c r="Z5"/>
       <c r="AA5"/>
       <c r="AL5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -1239,7 +1242,7 @@
     </row>
     <row r="7" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -1264,7 +1267,7 @@
     </row>
     <row r="8" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>12</v>
@@ -1289,7 +1292,7 @@
     </row>
     <row r="9" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>6</v>
@@ -1314,7 +1317,7 @@
     </row>
     <row r="10" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>6</v>
@@ -1339,7 +1342,7 @@
     </row>
     <row r="11" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C11" s="7">
         <v>11</v>
@@ -1364,7 +1367,7 @@
     </row>
     <row r="12" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7">
         <v>6</v>
@@ -1389,7 +1392,7 @@
     </row>
     <row r="13" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7">
         <v>11</v>
@@ -1414,7 +1417,7 @@
     </row>
     <row r="14" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7">
         <v>6</v>
@@ -1898,7 +1901,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="71" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="65" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
